--- a/va_facility_data_2025-02-20/Flint VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Flint%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Flint VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Flint%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0541fd1ca1fa4601930b697fd65d2e15"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6a2c3973ac3b4def8817571cf47f6010"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcf3684d6539943fca8677090e8ecf77e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb12ca4ff705f4588b21abe60b3c0a6ff"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6b4f3f2a428445b795767d392192aa21"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd96a1488f6a7445693a2532ebd52d093"/>
   </x:sheets>
 </x:workbook>
 </file>
